--- a/svensk_ mäklarstatistik_bostadsrätter_streamlit.xlsx
+++ b/svensk_ mäklarstatistik_bostadsrätter_streamlit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="40">
   <si>
     <t xml:space="preserve">År</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t xml:space="preserve">Örebro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Göteborg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norrköping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Västerås</t>
   </si>
 </sst>
 </file>
@@ -140,7 +149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -162,6 +171,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,12 +221,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -404,15 +423,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C146"/>
+  <dimension ref="A1:C233"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A193" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F234" activeCellId="0" sqref="F234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.4"/>
   </cols>
   <sheetData>
@@ -747,10 +766,10 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>4997</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -758,10 +777,10 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>5896</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -769,10 +788,10 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>6633</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -780,10 +799,10 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <v>7777</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -791,10 +810,10 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>8314</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -802,10 +821,10 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <v>9436</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -813,10 +832,10 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="1" t="n">
         <v>9818</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -824,10 +843,10 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <v>10938</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -835,10 +854,10 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="1" t="n">
         <v>12421</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -846,10 +865,10 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <v>15288</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -857,10 +876,10 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="1" t="n">
         <v>18649</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -868,10 +887,10 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="1" t="n">
         <v>20631</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -879,10 +898,10 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="1" t="n">
         <v>19536</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -890,10 +909,10 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="1" t="n">
         <v>20712</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -901,10 +920,10 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="1" t="n">
         <v>22794</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -912,10 +931,10 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="1" t="n">
         <v>23145</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -923,10 +942,10 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="1" t="n">
         <v>24351</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -934,10 +953,10 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="1" t="n">
         <v>27115</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -945,10 +964,10 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="1" t="n">
         <v>29999</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -956,10 +975,10 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50" s="1" t="n">
         <v>34646</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -967,10 +986,10 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="1" t="n">
         <v>37783</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -978,10 +997,10 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52" s="1" t="n">
         <v>39088</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -989,10 +1008,10 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="1" t="n">
         <v>36925</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -1000,10 +1019,10 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54" s="1" t="n">
         <v>38271</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -1011,10 +1030,10 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" s="1" t="n">
         <v>40892</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -1022,10 +1041,10 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56" s="1" t="n">
         <v>44550</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -1033,10 +1052,10 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57" s="1" t="n">
         <v>44323</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -1044,10 +1063,10 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58" s="1" t="n">
         <v>42812</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -1055,10 +1074,10 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59" s="1" t="n">
         <v>44413</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -1066,10 +1085,10 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60" s="1" t="n">
         <v>1766</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -1077,10 +1096,10 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61" s="1" t="n">
         <v>2253</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1088,10 +1107,10 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62" s="1" t="n">
         <v>2610</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -1099,10 +1118,10 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63" s="1" t="n">
         <v>3041</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -1110,10 +1129,10 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64" s="1" t="n">
         <v>3954</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -1121,10 +1140,10 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="1" t="n">
         <v>4072</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -1132,10 +1151,10 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66" s="1" t="n">
         <v>5190</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -1143,10 +1162,10 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67" s="1" t="n">
         <v>5400</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -1154,10 +1173,10 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68" s="1" t="n">
         <v>6883</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -1165,10 +1184,10 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69" s="1" t="n">
         <v>8497</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -1176,10 +1195,10 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70" s="1" t="n">
         <v>9139</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -1187,10 +1206,10 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71" s="1" t="n">
         <v>10915</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -1198,10 +1217,10 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72" s="1" t="n">
         <v>11205</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -1209,10 +1228,10 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73" s="1" t="n">
         <v>12909</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -1220,10 +1239,10 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74" s="1" t="n">
         <v>14407</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -1231,10 +1250,10 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75" s="1" t="n">
         <v>15945</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -1242,10 +1261,10 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76" s="1" t="n">
         <v>16658</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -1253,10 +1272,10 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77" s="1" t="n">
         <v>20493</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -1264,10 +1283,10 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78" s="1" t="n">
         <v>23668</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -1275,10 +1294,10 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79" s="1" t="n">
         <v>26502</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -1286,10 +1305,10 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80" s="1" t="n">
         <v>29787</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -1297,10 +1316,10 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81" s="1" t="n">
         <v>33759</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -1308,10 +1327,10 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82" s="1" t="n">
         <v>31084</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -1319,10 +1338,10 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83" s="1" t="n">
         <v>31774</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -1330,10 +1349,10 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84" s="1" t="n">
         <v>33004</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -1341,10 +1360,10 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85" s="1" t="n">
         <v>36159</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -1352,10 +1371,10 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86" s="1" t="n">
         <v>34695</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -1363,10 +1382,10 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87" s="1" t="n">
         <v>31318</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -1374,10 +1393,10 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B88" s="1" t="n">
         <v>31550</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -1385,10 +1404,10 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89" s="1" t="n">
         <v>2950</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -1396,10 +1415,10 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90" s="1" t="n">
         <v>3065</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -1407,10 +1426,10 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B91" s="1" t="n">
         <v>3190</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -1418,10 +1437,10 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B92" s="1" t="n">
         <v>4213</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -1429,10 +1448,10 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B93" s="1" t="n">
         <v>5862</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -1440,10 +1459,10 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B94" s="1" t="n">
         <v>5636</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -1451,10 +1470,10 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95" s="1" t="n">
         <v>6458</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -1462,10 +1481,10 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B96" s="1" t="n">
         <v>8342</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -1473,10 +1492,10 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B97" s="1" t="n">
         <v>10285</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -1484,10 +1503,10 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B98" s="1" t="n">
         <v>12422</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -1495,10 +1514,10 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B99" s="1" t="n">
         <v>15210</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -1506,10 +1525,10 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B100" s="1" t="n">
         <v>18280</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -1517,10 +1536,10 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B101" s="1" t="n">
         <v>16637</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -1528,10 +1547,10 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B102" s="1" t="n">
         <v>17603</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -1539,10 +1558,10 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B103" s="0" t="n">
+      <c r="B103" s="1" t="n">
         <v>19093</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -1550,10 +1569,10 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B104" s="0" t="n">
+      <c r="B104" s="1" t="n">
         <v>17923</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -1561,10 +1580,10 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B105" s="0" t="n">
+      <c r="B105" s="1" t="n">
         <v>17927</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -1572,10 +1591,10 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B106" s="0" t="n">
+      <c r="B106" s="1" t="n">
         <v>18761</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -1583,10 +1602,10 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B107" s="1" t="n">
         <v>19998</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -1594,10 +1613,10 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="A108" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B108" s="0" t="n">
+      <c r="B108" s="1" t="n">
         <v>22074</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -1605,10 +1624,10 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B109" s="0" t="n">
+      <c r="B109" s="1" t="n">
         <v>25132</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -1616,10 +1635,10 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="A110" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B110" s="0" t="n">
+      <c r="B110" s="1" t="n">
         <v>28344</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -1627,10 +1646,10 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="A111" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B111" s="0" t="n">
+      <c r="B111" s="1" t="n">
         <v>27508</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -1638,10 +1657,10 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B112" s="0" t="n">
+      <c r="B112" s="1" t="n">
         <v>29329</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -1649,10 +1668,10 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="A113" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B113" s="0" t="n">
+      <c r="B113" s="1" t="n">
         <v>30891</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -1660,10 +1679,10 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B114" s="0" t="n">
+      <c r="B114" s="1" t="n">
         <v>34970</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -1671,10 +1690,10 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B115" s="0" t="n">
+      <c r="B115" s="1" t="n">
         <v>35570</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -1682,10 +1701,10 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="A116" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B116" s="0" t="n">
+      <c r="B116" s="1" t="n">
         <v>33604</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -1693,10 +1712,10 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B117" s="0" t="n">
+      <c r="B117" s="1" t="n">
         <v>35029</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -1704,10 +1723,10 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="A118" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="0" t="n">
+      <c r="B118" s="1" t="n">
         <v>1517</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -1715,10 +1734,10 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B119" s="0" t="n">
+      <c r="B119" s="1" t="n">
         <v>2729</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -1726,10 +1745,10 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="A120" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B120" s="0" t="n">
+      <c r="B120" s="1" t="n">
         <v>2356</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -1737,10 +1756,10 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="A121" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B121" s="0" t="n">
+      <c r="B121" s="1" t="n">
         <v>2963</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -1748,10 +1767,10 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="A122" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B122" s="0" t="n">
+      <c r="B122" s="1" t="n">
         <v>3255</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -1759,10 +1778,10 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="A123" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B123" s="0" t="n">
+      <c r="B123" s="1" t="n">
         <v>4582</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -1770,10 +1789,10 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="A124" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B124" s="0" t="n">
+      <c r="B124" s="1" t="n">
         <v>3950</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -1781,10 +1800,10 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+      <c r="A125" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B125" s="0" t="n">
+      <c r="B125" s="1" t="n">
         <v>5178</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -1792,10 +1811,10 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="A126" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B126" s="0" t="n">
+      <c r="B126" s="1" t="n">
         <v>5991</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -1803,10 +1822,10 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="A127" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B127" s="0" t="n">
+      <c r="B127" s="1" t="n">
         <v>7244</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -1814,10 +1833,10 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+      <c r="A128" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B128" s="0" t="n">
+      <c r="B128" s="1" t="n">
         <v>8389</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -1825,10 +1844,10 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+      <c r="A129" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B129" s="0" t="n">
+      <c r="B129" s="1" t="n">
         <v>9689</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -1836,10 +1855,10 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="A130" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B130" s="0" t="n">
+      <c r="B130" s="1" t="n">
         <v>10087</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -1847,10 +1866,10 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="A131" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B131" s="0" t="n">
+      <c r="B131" s="1" t="n">
         <v>11287</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -1858,10 +1877,10 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="A132" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B132" s="0" t="n">
+      <c r="B132" s="1" t="n">
         <v>13050</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -1869,10 +1888,10 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+      <c r="A133" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B133" s="0" t="n">
+      <c r="B133" s="1" t="n">
         <v>13585</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -1880,10 +1899,10 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+      <c r="A134" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B134" s="0" t="n">
+      <c r="B134" s="1" t="n">
         <v>14416</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -1891,10 +1910,10 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+      <c r="A135" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B135" s="0" t="n">
+      <c r="B135" s="1" t="n">
         <v>16779</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -1902,10 +1921,10 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+      <c r="A136" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B136" s="0" t="n">
+      <c r="B136" s="1" t="n">
         <v>19100</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -1913,10 +1932,10 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+      <c r="A137" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B137" s="0" t="n">
+      <c r="B137" s="1" t="n">
         <v>21903</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -1924,10 +1943,10 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="A138" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B138" s="0" t="n">
+      <c r="B138" s="1" t="n">
         <v>24604</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -1935,10 +1954,10 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+      <c r="A139" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B139" s="0" t="n">
+      <c r="B139" s="1" t="n">
         <v>24510</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -1946,10 +1965,10 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+      <c r="A140" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B140" s="0" t="n">
+      <c r="B140" s="1" t="n">
         <v>23515</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -1957,10 +1976,10 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+      <c r="A141" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B141" s="0" t="n">
+      <c r="B141" s="1" t="n">
         <v>25519</v>
       </c>
       <c r="C141" s="1" t="s">
@@ -1968,10 +1987,10 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="A142" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B142" s="0" t="n">
+      <c r="B142" s="1" t="n">
         <v>26825</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -1979,10 +1998,10 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+      <c r="A143" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B143" s="0" t="n">
+      <c r="B143" s="1" t="n">
         <v>28650</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -1990,10 +2009,10 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+      <c r="A144" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B144" s="0" t="n">
+      <c r="B144" s="1" t="n">
         <v>29006</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -2001,10 +2020,10 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+      <c r="A145" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B145" s="0" t="n">
+      <c r="B145" s="1" t="n">
         <v>26722</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -2012,14 +2031,971 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+      <c r="A146" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B146" s="0" t="n">
+      <c r="B146" s="1" t="n">
         <v>26159</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" s="0" t="n">
+        <v>3373</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>4081</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>4695</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" s="0" t="n">
+        <v>6592</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" s="0" t="n">
+        <v>8456</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" s="0" t="n">
+        <v>9591</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" s="0" t="n">
+        <v>11010</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" s="0" t="n">
+        <v>13148</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" s="0" t="n">
+        <v>15452</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" s="0" t="n">
+        <v>18128</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" s="0" t="n">
+        <v>21194</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B158" s="0" t="n">
+        <v>23133</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B159" s="0" t="n">
+        <v>22514</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B160" s="0" t="n">
+        <v>23542</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B161" s="0" t="n">
+        <v>26032</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B162" s="0" t="n">
+        <v>26444</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B163" s="0" t="n">
+        <v>27816</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B164" s="0" t="n">
+        <v>30789</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B165" s="0" t="n">
+        <v>33366</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B166" s="0" t="n">
+        <v>40296</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B167" s="0" t="n">
+        <v>44430</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B168" s="0" t="n">
+        <v>48865</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B169" s="0" t="n">
+        <v>47207</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B170" s="0" t="n">
+        <v>47685</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B171" s="0" t="n">
+        <v>49632</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B172" s="0" t="n">
+        <v>52764</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B173" s="0" t="n">
+        <v>52215</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B174" s="0" t="n">
+        <v>49466</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B175" s="0" t="n">
+        <v>50249</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B176" s="0" t="n">
+        <v>1763</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="0" t="n">
+        <v>1659</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178" s="0" t="n">
+        <v>1945</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" s="0" t="n">
+        <v>1850</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" s="0" t="n">
+        <v>2256</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B181" s="0" t="n">
+        <v>2294</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182" s="0" t="n">
+        <v>2401</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B183" s="0" t="n">
+        <v>3027</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B184" s="0" t="n">
+        <v>4065</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" s="0" t="n">
+        <v>4745</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B186" s="0" t="n">
+        <v>5683</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B187" s="0" t="n">
+        <v>7168</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B188" s="0" t="n">
+        <v>7719</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B189" s="0" t="n">
+        <v>9712</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B190" s="0" t="n">
+        <v>10193</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B191" s="0" t="n">
+        <v>10818</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B192" s="0" t="n">
+        <v>11621</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B193" s="0" t="n">
+        <v>13297</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B194" s="0" t="n">
+        <v>16627</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B195" s="0" t="n">
+        <v>19039</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B196" s="0" t="n">
+        <v>21819</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B197" s="0" t="n">
+        <v>24769</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B198" s="0" t="n">
+        <v>24167</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B199" s="0" t="n">
+        <v>25000</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B200" s="0" t="n">
+        <v>26387</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B201" s="0" t="n">
+        <v>28193</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B202" s="0" t="n">
+        <v>27705</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B203" s="0" t="n">
+        <v>25662</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B204" s="0" t="n">
+        <v>25717</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B205" s="0" t="n">
+        <v>1867</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206" s="0" t="n">
+        <v>2249</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B207" s="0" t="n">
+        <v>2353</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B208" s="0" t="n">
+        <v>2752</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B209" s="0" t="n">
+        <v>2282</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210" s="0" t="n">
+        <v>2993</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211" s="0" t="n">
+        <v>4035</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B212" s="0" t="n">
+        <v>4288</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B213" s="0" t="n">
+        <v>5573</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B214" s="0" t="n">
+        <v>6930</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B215" s="0" t="n">
+        <v>8355</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B216" s="0" t="n">
+        <v>10220</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B217" s="0" t="n">
+        <v>10526</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B218" s="0" t="n">
+        <v>12032</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B219" s="0" t="n">
+        <v>11874</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B220" s="0" t="n">
+        <v>11394</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B221" s="0" t="n">
+        <v>12010</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B222" s="0" t="n">
+        <v>13208</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B223" s="0" t="n">
+        <v>14852</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B224" s="0" t="n">
+        <v>17806</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B225" s="0" t="n">
+        <v>20244</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B226" s="0" t="n">
+        <v>22426</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B227" s="0" t="n">
+        <v>22225</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B228" s="0" t="n">
+        <v>22792</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B229" s="0" t="n">
+        <v>23838</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B230" s="0" t="n">
+        <v>26283</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B231" s="0" t="n">
+        <v>25645</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B232" s="0" t="n">
+        <v>23873</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B233" s="0" t="n">
+        <v>24003</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/svensk_ mäklarstatistik_bostadsrätter_streamlit.xlsx
+++ b/svensk_ mäklarstatistik_bostadsrätter_streamlit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="41">
   <si>
     <t xml:space="preserve">År</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t xml:space="preserve">Västerås</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uppsala</t>
   </si>
 </sst>
 </file>
@@ -149,7 +152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,12 +174,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -230,7 +227,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -423,10 +420,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C233"/>
+  <dimension ref="A1:C262"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A193" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F234" activeCellId="0" sqref="F234"/>
+      <selection pane="topLeft" activeCell="E230" activeCellId="0" sqref="E230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2042,10 +2039,10 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+      <c r="A147" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B147" s="0" t="n">
+      <c r="B147" s="1" t="n">
         <v>3373</v>
       </c>
       <c r="C147" s="2" t="s">
@@ -2053,10 +2050,10 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+      <c r="A148" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B148" s="0" t="n">
+      <c r="B148" s="1" t="n">
         <v>4081</v>
       </c>
       <c r="C148" s="2" t="s">
@@ -2064,10 +2061,10 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+      <c r="A149" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B149" s="0" t="n">
+      <c r="B149" s="1" t="n">
         <v>4695</v>
       </c>
       <c r="C149" s="2" t="s">
@@ -2075,10 +2072,10 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+      <c r="A150" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B150" s="0" t="n">
+      <c r="B150" s="1" t="n">
         <v>6592</v>
       </c>
       <c r="C150" s="2" t="s">
@@ -2086,10 +2083,10 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+      <c r="A151" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B151" s="0" t="n">
+      <c r="B151" s="1" t="n">
         <v>8456</v>
       </c>
       <c r="C151" s="2" t="s">
@@ -2097,10 +2094,10 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+      <c r="A152" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B152" s="0" t="n">
+      <c r="B152" s="1" t="n">
         <v>9591</v>
       </c>
       <c r="C152" s="2" t="s">
@@ -2108,10 +2105,10 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+      <c r="A153" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B153" s="0" t="n">
+      <c r="B153" s="1" t="n">
         <v>11010</v>
       </c>
       <c r="C153" s="2" t="s">
@@ -2119,10 +2116,10 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+      <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B154" s="0" t="n">
+      <c r="B154" s="1" t="n">
         <v>13148</v>
       </c>
       <c r="C154" s="2" t="s">
@@ -2130,10 +2127,10 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+      <c r="A155" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B155" s="0" t="n">
+      <c r="B155" s="1" t="n">
         <v>15452</v>
       </c>
       <c r="C155" s="2" t="s">
@@ -2141,10 +2138,10 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+      <c r="A156" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B156" s="0" t="n">
+      <c r="B156" s="1" t="n">
         <v>18128</v>
       </c>
       <c r="C156" s="2" t="s">
@@ -2152,10 +2149,10 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+      <c r="A157" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B157" s="0" t="n">
+      <c r="B157" s="1" t="n">
         <v>21194</v>
       </c>
       <c r="C157" s="2" t="s">
@@ -2163,10 +2160,10 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+      <c r="A158" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B158" s="0" t="n">
+      <c r="B158" s="1" t="n">
         <v>23133</v>
       </c>
       <c r="C158" s="2" t="s">
@@ -2174,10 +2171,10 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+      <c r="A159" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B159" s="0" t="n">
+      <c r="B159" s="1" t="n">
         <v>22514</v>
       </c>
       <c r="C159" s="2" t="s">
@@ -2185,10 +2182,10 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+      <c r="A160" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B160" s="0" t="n">
+      <c r="B160" s="1" t="n">
         <v>23542</v>
       </c>
       <c r="C160" s="2" t="s">
@@ -2196,10 +2193,10 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+      <c r="A161" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B161" s="0" t="n">
+      <c r="B161" s="1" t="n">
         <v>26032</v>
       </c>
       <c r="C161" s="2" t="s">
@@ -2207,10 +2204,10 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+      <c r="A162" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B162" s="0" t="n">
+      <c r="B162" s="1" t="n">
         <v>26444</v>
       </c>
       <c r="C162" s="2" t="s">
@@ -2218,10 +2215,10 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+      <c r="A163" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B163" s="0" t="n">
+      <c r="B163" s="1" t="n">
         <v>27816</v>
       </c>
       <c r="C163" s="2" t="s">
@@ -2229,10 +2226,10 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+      <c r="A164" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B164" s="0" t="n">
+      <c r="B164" s="1" t="n">
         <v>30789</v>
       </c>
       <c r="C164" s="2" t="s">
@@ -2240,10 +2237,10 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+      <c r="A165" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B165" s="0" t="n">
+      <c r="B165" s="1" t="n">
         <v>33366</v>
       </c>
       <c r="C165" s="2" t="s">
@@ -2251,10 +2248,10 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+      <c r="A166" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B166" s="0" t="n">
+      <c r="B166" s="1" t="n">
         <v>40296</v>
       </c>
       <c r="C166" s="2" t="s">
@@ -2262,10 +2259,10 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+      <c r="A167" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B167" s="0" t="n">
+      <c r="B167" s="1" t="n">
         <v>44430</v>
       </c>
       <c r="C167" s="2" t="s">
@@ -2273,10 +2270,10 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+      <c r="A168" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B168" s="0" t="n">
+      <c r="B168" s="1" t="n">
         <v>48865</v>
       </c>
       <c r="C168" s="2" t="s">
@@ -2284,10 +2281,10 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+      <c r="A169" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B169" s="0" t="n">
+      <c r="B169" s="1" t="n">
         <v>47207</v>
       </c>
       <c r="C169" s="2" t="s">
@@ -2295,10 +2292,10 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+      <c r="A170" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B170" s="0" t="n">
+      <c r="B170" s="1" t="n">
         <v>47685</v>
       </c>
       <c r="C170" s="2" t="s">
@@ -2306,10 +2303,10 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+      <c r="A171" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B171" s="0" t="n">
+      <c r="B171" s="1" t="n">
         <v>49632</v>
       </c>
       <c r="C171" s="2" t="s">
@@ -2317,10 +2314,10 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+      <c r="A172" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B172" s="0" t="n">
+      <c r="B172" s="1" t="n">
         <v>52764</v>
       </c>
       <c r="C172" s="2" t="s">
@@ -2328,10 +2325,10 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+      <c r="A173" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B173" s="0" t="n">
+      <c r="B173" s="1" t="n">
         <v>52215</v>
       </c>
       <c r="C173" s="2" t="s">
@@ -2339,10 +2336,10 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+      <c r="A174" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B174" s="0" t="n">
+      <c r="B174" s="1" t="n">
         <v>49466</v>
       </c>
       <c r="C174" s="2" t="s">
@@ -2350,10 +2347,10 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
+      <c r="A175" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B175" s="0" t="n">
+      <c r="B175" s="1" t="n">
         <v>50249</v>
       </c>
       <c r="C175" s="2" t="s">
@@ -2361,10 +2358,10 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+      <c r="A176" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B176" s="0" t="n">
+      <c r="B176" s="1" t="n">
         <v>1763</v>
       </c>
       <c r="C176" s="2" t="s">
@@ -2372,10 +2369,10 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+      <c r="A177" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B177" s="0" t="n">
+      <c r="B177" s="1" t="n">
         <v>1659</v>
       </c>
       <c r="C177" s="2" t="s">
@@ -2383,10 +2380,10 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+      <c r="A178" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B178" s="0" t="n">
+      <c r="B178" s="1" t="n">
         <v>1945</v>
       </c>
       <c r="C178" s="2" t="s">
@@ -2394,10 +2391,10 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
+      <c r="A179" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B179" s="0" t="n">
+      <c r="B179" s="1" t="n">
         <v>1850</v>
       </c>
       <c r="C179" s="2" t="s">
@@ -2405,10 +2402,10 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
+      <c r="A180" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B180" s="0" t="n">
+      <c r="B180" s="1" t="n">
         <v>2256</v>
       </c>
       <c r="C180" s="2" t="s">
@@ -2416,10 +2413,10 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+      <c r="A181" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B181" s="0" t="n">
+      <c r="B181" s="1" t="n">
         <v>2294</v>
       </c>
       <c r="C181" s="2" t="s">
@@ -2427,10 +2424,10 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+      <c r="A182" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B182" s="0" t="n">
+      <c r="B182" s="1" t="n">
         <v>2401</v>
       </c>
       <c r="C182" s="2" t="s">
@@ -2438,10 +2435,10 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
+      <c r="A183" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B183" s="0" t="n">
+      <c r="B183" s="1" t="n">
         <v>3027</v>
       </c>
       <c r="C183" s="2" t="s">
@@ -2449,10 +2446,10 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+      <c r="A184" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B184" s="0" t="n">
+      <c r="B184" s="1" t="n">
         <v>4065</v>
       </c>
       <c r="C184" s="2" t="s">
@@ -2460,10 +2457,10 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
+      <c r="A185" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B185" s="0" t="n">
+      <c r="B185" s="1" t="n">
         <v>4745</v>
       </c>
       <c r="C185" s="2" t="s">
@@ -2471,10 +2468,10 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
+      <c r="A186" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B186" s="0" t="n">
+      <c r="B186" s="1" t="n">
         <v>5683</v>
       </c>
       <c r="C186" s="2" t="s">
@@ -2482,10 +2479,10 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
+      <c r="A187" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B187" s="0" t="n">
+      <c r="B187" s="1" t="n">
         <v>7168</v>
       </c>
       <c r="C187" s="2" t="s">
@@ -2493,10 +2490,10 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
+      <c r="A188" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B188" s="0" t="n">
+      <c r="B188" s="1" t="n">
         <v>7719</v>
       </c>
       <c r="C188" s="2" t="s">
@@ -2504,10 +2501,10 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
+      <c r="A189" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B189" s="0" t="n">
+      <c r="B189" s="1" t="n">
         <v>9712</v>
       </c>
       <c r="C189" s="2" t="s">
@@ -2515,10 +2512,10 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
+      <c r="A190" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B190" s="0" t="n">
+      <c r="B190" s="1" t="n">
         <v>10193</v>
       </c>
       <c r="C190" s="2" t="s">
@@ -2526,10 +2523,10 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
+      <c r="A191" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B191" s="0" t="n">
+      <c r="B191" s="1" t="n">
         <v>10818</v>
       </c>
       <c r="C191" s="2" t="s">
@@ -2537,10 +2534,10 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
+      <c r="A192" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B192" s="0" t="n">
+      <c r="B192" s="1" t="n">
         <v>11621</v>
       </c>
       <c r="C192" s="2" t="s">
@@ -2548,10 +2545,10 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
+      <c r="A193" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B193" s="0" t="n">
+      <c r="B193" s="1" t="n">
         <v>13297</v>
       </c>
       <c r="C193" s="2" t="s">
@@ -2559,10 +2556,10 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
+      <c r="A194" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B194" s="0" t="n">
+      <c r="B194" s="1" t="n">
         <v>16627</v>
       </c>
       <c r="C194" s="2" t="s">
@@ -2570,10 +2567,10 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
+      <c r="A195" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B195" s="0" t="n">
+      <c r="B195" s="1" t="n">
         <v>19039</v>
       </c>
       <c r="C195" s="2" t="s">
@@ -2581,10 +2578,10 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
+      <c r="A196" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B196" s="0" t="n">
+      <c r="B196" s="1" t="n">
         <v>21819</v>
       </c>
       <c r="C196" s="2" t="s">
@@ -2592,10 +2589,10 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
+      <c r="A197" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B197" s="0" t="n">
+      <c r="B197" s="1" t="n">
         <v>24769</v>
       </c>
       <c r="C197" s="2" t="s">
@@ -2603,10 +2600,10 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
+      <c r="A198" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B198" s="0" t="n">
+      <c r="B198" s="1" t="n">
         <v>24167</v>
       </c>
       <c r="C198" s="2" t="s">
@@ -2614,10 +2611,10 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
+      <c r="A199" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B199" s="0" t="n">
+      <c r="B199" s="1" t="n">
         <v>25000</v>
       </c>
       <c r="C199" s="2" t="s">
@@ -2625,10 +2622,10 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+      <c r="A200" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B200" s="0" t="n">
+      <c r="B200" s="1" t="n">
         <v>26387</v>
       </c>
       <c r="C200" s="2" t="s">
@@ -2636,10 +2633,10 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
+      <c r="A201" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B201" s="0" t="n">
+      <c r="B201" s="1" t="n">
         <v>28193</v>
       </c>
       <c r="C201" s="2" t="s">
@@ -2647,10 +2644,10 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
+      <c r="A202" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B202" s="0" t="n">
+      <c r="B202" s="1" t="n">
         <v>27705</v>
       </c>
       <c r="C202" s="2" t="s">
@@ -2658,10 +2655,10 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
+      <c r="A203" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B203" s="0" t="n">
+      <c r="B203" s="1" t="n">
         <v>25662</v>
       </c>
       <c r="C203" s="2" t="s">
@@ -2669,10 +2666,10 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
+      <c r="A204" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B204" s="0" t="n">
+      <c r="B204" s="1" t="n">
         <v>25717</v>
       </c>
       <c r="C204" s="2" t="s">
@@ -2680,10 +2677,10 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
+      <c r="A205" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B205" s="0" t="n">
+      <c r="B205" s="1" t="n">
         <v>1867</v>
       </c>
       <c r="C205" s="2" t="s">
@@ -2691,10 +2688,10 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
+      <c r="A206" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B206" s="0" t="n">
+      <c r="B206" s="1" t="n">
         <v>2249</v>
       </c>
       <c r="C206" s="2" t="s">
@@ -2702,10 +2699,10 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
+      <c r="A207" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B207" s="0" t="n">
+      <c r="B207" s="1" t="n">
         <v>2353</v>
       </c>
       <c r="C207" s="2" t="s">
@@ -2713,10 +2710,10 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
+      <c r="A208" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B208" s="0" t="n">
+      <c r="B208" s="1" t="n">
         <v>2752</v>
       </c>
       <c r="C208" s="2" t="s">
@@ -2724,10 +2721,10 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
+      <c r="A209" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B209" s="0" t="n">
+      <c r="B209" s="1" t="n">
         <v>2282</v>
       </c>
       <c r="C209" s="2" t="s">
@@ -2735,10 +2732,10 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
+      <c r="A210" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B210" s="0" t="n">
+      <c r="B210" s="1" t="n">
         <v>2993</v>
       </c>
       <c r="C210" s="2" t="s">
@@ -2746,10 +2743,10 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
+      <c r="A211" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B211" s="0" t="n">
+      <c r="B211" s="1" t="n">
         <v>4035</v>
       </c>
       <c r="C211" s="2" t="s">
@@ -2757,10 +2754,10 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
+      <c r="A212" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B212" s="0" t="n">
+      <c r="B212" s="1" t="n">
         <v>4288</v>
       </c>
       <c r="C212" s="2" t="s">
@@ -2768,10 +2765,10 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
+      <c r="A213" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B213" s="0" t="n">
+      <c r="B213" s="1" t="n">
         <v>5573</v>
       </c>
       <c r="C213" s="2" t="s">
@@ -2779,10 +2776,10 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
+      <c r="A214" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B214" s="0" t="n">
+      <c r="B214" s="1" t="n">
         <v>6930</v>
       </c>
       <c r="C214" s="2" t="s">
@@ -2790,10 +2787,10 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
+      <c r="A215" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B215" s="0" t="n">
+      <c r="B215" s="1" t="n">
         <v>8355</v>
       </c>
       <c r="C215" s="2" t="s">
@@ -2801,10 +2798,10 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
+      <c r="A216" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B216" s="0" t="n">
+      <c r="B216" s="1" t="n">
         <v>10220</v>
       </c>
       <c r="C216" s="2" t="s">
@@ -2812,10 +2809,10 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
+      <c r="A217" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B217" s="0" t="n">
+      <c r="B217" s="1" t="n">
         <v>10526</v>
       </c>
       <c r="C217" s="2" t="s">
@@ -2823,10 +2820,10 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
+      <c r="A218" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B218" s="0" t="n">
+      <c r="B218" s="1" t="n">
         <v>12032</v>
       </c>
       <c r="C218" s="2" t="s">
@@ -2834,10 +2831,10 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
+      <c r="A219" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B219" s="0" t="n">
+      <c r="B219" s="1" t="n">
         <v>11874</v>
       </c>
       <c r="C219" s="2" t="s">
@@ -2845,10 +2842,10 @@
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
+      <c r="A220" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B220" s="0" t="n">
+      <c r="B220" s="1" t="n">
         <v>11394</v>
       </c>
       <c r="C220" s="2" t="s">
@@ -2856,10 +2853,10 @@
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
+      <c r="A221" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B221" s="0" t="n">
+      <c r="B221" s="1" t="n">
         <v>12010</v>
       </c>
       <c r="C221" s="2" t="s">
@@ -2867,10 +2864,10 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
+      <c r="A222" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B222" s="0" t="n">
+      <c r="B222" s="1" t="n">
         <v>13208</v>
       </c>
       <c r="C222" s="2" t="s">
@@ -2878,10 +2875,10 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
+      <c r="A223" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B223" s="0" t="n">
+      <c r="B223" s="1" t="n">
         <v>14852</v>
       </c>
       <c r="C223" s="2" t="s">
@@ -2889,10 +2886,10 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
+      <c r="A224" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B224" s="0" t="n">
+      <c r="B224" s="1" t="n">
         <v>17806</v>
       </c>
       <c r="C224" s="2" t="s">
@@ -2900,10 +2897,10 @@
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
+      <c r="A225" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B225" s="0" t="n">
+      <c r="B225" s="1" t="n">
         <v>20244</v>
       </c>
       <c r="C225" s="2" t="s">
@@ -2911,10 +2908,10 @@
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
+      <c r="A226" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B226" s="0" t="n">
+      <c r="B226" s="1" t="n">
         <v>22426</v>
       </c>
       <c r="C226" s="2" t="s">
@@ -2922,10 +2919,10 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
+      <c r="A227" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B227" s="0" t="n">
+      <c r="B227" s="1" t="n">
         <v>22225</v>
       </c>
       <c r="C227" s="2" t="s">
@@ -2933,10 +2930,10 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
+      <c r="A228" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B228" s="0" t="n">
+      <c r="B228" s="1" t="n">
         <v>22792</v>
       </c>
       <c r="C228" s="2" t="s">
@@ -2944,10 +2941,10 @@
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
+      <c r="A229" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B229" s="0" t="n">
+      <c r="B229" s="1" t="n">
         <v>23838</v>
       </c>
       <c r="C229" s="2" t="s">
@@ -2955,10 +2952,10 @@
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
+      <c r="A230" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B230" s="0" t="n">
+      <c r="B230" s="1" t="n">
         <v>26283</v>
       </c>
       <c r="C230" s="2" t="s">
@@ -2966,10 +2963,10 @@
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
+      <c r="A231" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B231" s="0" t="n">
+      <c r="B231" s="1" t="n">
         <v>25645</v>
       </c>
       <c r="C231" s="2" t="s">
@@ -2977,10 +2974,10 @@
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
+      <c r="A232" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B232" s="0" t="n">
+      <c r="B232" s="1" t="n">
         <v>23873</v>
       </c>
       <c r="C232" s="2" t="s">
@@ -2988,14 +2985,333 @@
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
+      <c r="A233" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B233" s="0" t="n">
+      <c r="B233" s="1" t="n">
         <v>24003</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B234" s="0" t="n">
+        <v>4036</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235" s="0" t="n">
+        <v>4566</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B236" s="0" t="n">
+        <v>5614</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B237" s="0" t="n">
+        <v>6743</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B238" s="0" t="n">
+        <v>8496</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B239" s="0" t="n">
+        <v>9647</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B240" s="0" t="n">
+        <v>11459</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B241" s="0" t="n">
+        <v>12145</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B242" s="0" t="n">
+        <v>13589</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B243" s="0" t="n">
+        <v>14737</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B244" s="0" t="n">
+        <v>15640</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B245" s="0" t="n">
+        <v>17936</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B246" s="0" t="n">
+        <v>18377</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B247" s="0" t="n">
+        <v>20350</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B248" s="0" t="n">
+        <v>23963</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B249" s="0" t="n">
+        <v>25773</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B250" s="0" t="n">
+        <v>27295</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B251" s="0" t="n">
+        <v>30135</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B252" s="0" t="n">
+        <v>34332</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B253" s="0" t="n">
+        <v>37695</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B254" s="0" t="n">
+        <v>39007</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B255" s="0" t="n">
+        <v>40307</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B256" s="0" t="n">
+        <v>37120</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B257" s="0" t="n">
+        <v>37762</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B258" s="0" t="n">
+        <v>39399</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B259" s="0" t="n">
+        <v>42762</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B260" s="0" t="n">
+        <v>42336</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B261" s="0" t="n">
+        <v>40020</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B262" s="0" t="n">
+        <v>40193</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
